--- a/7990/Exercise_perceptron_soln.xlsx
+++ b/7990/Exercise_perceptron_soln.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="18420" windowWidth="9210" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>[-1, -1, -1]</t>
     </r>
     <r>
@@ -157,6 +163,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color rgb="FF002060"/>
+        <rFont val="TimesNewRomanPS-ItalicMT"/>
+        <charset val="134"/>
+      </rPr>
       <t>h</t>
     </r>
     <r>
@@ -192,6 +205,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color rgb="FF002060"/>
+        <rFont val="TimesNewRomanPS-ItalicMT"/>
+        <charset val="134"/>
+      </rPr>
       <t>h</t>
     </r>
     <r>
@@ -220,6 +240,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color rgb="FF002060"/>
+        <rFont val="TimesNewRomanPS-ItalicMT"/>
+        <charset val="134"/>
+      </rPr>
       <t>h</t>
     </r>
     <r>
@@ -251,6 +278,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color rgb="FF002060"/>
+        <rFont val="TimesNewRomanPS-ItalicMT"/>
+        <charset val="134"/>
+      </rPr>
       <t>h</t>
     </r>
     <r>
@@ -946,7 +980,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,9 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1334,10 +1365,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1949,7 +1980,7 @@
       </c>
     </row>
     <row r="53" ht="27" spans="1:4">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -1964,7 +1995,7 @@
       </c>
     </row>
     <row r="54" ht="27" spans="1:4">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -1972,6 +2003,110 @@
       </c>
       <c r="D54">
         <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <f>4/7*LOG(4/7,2)</f>
+        <v>-0.461345669747202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <f>3/7*LOG(3/7,2)</f>
+        <v>-0.523882466287049</v>
+      </c>
+      <c r="B72">
+        <f>(A71+A72)*-1/2</f>
+        <v>0.492614068017126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <f>6/7*LOG(6/7,2)</f>
+        <v>-0.190622075431241</v>
+      </c>
+      <c r="B73">
+        <f>(A73+A74)*-1/2</f>
+        <v>0.295836389291164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <f>1/7*LOG(1/7,2)</f>
+        <v>-0.401050703151086</v>
+      </c>
+      <c r="B74">
+        <f>0.94-B72-B73</f>
+        <v>0.151549542691711</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <f>2/3*LOG(2/3,2)</f>
+        <v>-0.389975000480771</v>
+      </c>
+      <c r="B75">
+        <f>(A75+A76)</f>
+        <v>-0.918295834054489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <f>1/3*LOG(1/3,2)</f>
+        <v>-0.528320833573719</v>
+      </c>
+      <c r="B76">
+        <f>B75*-3/5</f>
+        <v>0.550977500432694</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <f>0.5*LOG(0.5,2)*2</f>
+        <v>-1</v>
+      </c>
+      <c r="B77">
+        <f>A77*-2/5</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78">
+        <f>0.971-B77-B76</f>
+        <v>0.0200224995673063</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <f>3/5*LOG(3/5,2)</f>
+        <v>-0.442179356499724</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <f>2/5*LOG(2/5,2)</f>
+        <v>-0.528771237954945</v>
+      </c>
+      <c r="B80">
+        <f>A79+A80</f>
+        <v>-0.970950594454669</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81">
+        <f>B80*-3/5</f>
+        <v>0.582570356672801</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <f>LOG(1,2)</f>
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <f>0.91-B81</f>
+        <v>0.327429643327199</v>
       </c>
     </row>
   </sheetData>
